--- a/HG/metrics/transcribed_metrics_graphs.xlsx
+++ b/HG/metrics/transcribed_metrics_graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\Thesis\ATC\HG\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC\HG\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E672C7D8-EB0C-47AE-9EE1-8EFBBCA0B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0537435-19DC-4186-9A7B-AF5B2A22C77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transcribed_metrics_graphs" sheetId="1" r:id="rId1"/>
@@ -67,61 +67,31 @@
     <t>transcribed_xlsr_ft_10_test.csv</t>
   </si>
   <si>
-    <t>xls-r 10</t>
-  </si>
-  <si>
     <t>transcribed_xlsr_ft_50_test.csv</t>
-  </si>
-  <si>
-    <t>xls-r 50</t>
   </si>
   <si>
     <t>transcribed_xlsr_ft_150_test.csv</t>
   </si>
   <si>
-    <t>xls-r 150</t>
-  </si>
-  <si>
     <t>transcribed_xlsr_ft_500_test.csv</t>
-  </si>
-  <si>
-    <t>xls-r 500</t>
   </si>
   <si>
     <t>transcribed_xlsr_ft_1000_test.csv</t>
   </si>
   <si>
-    <t>xls-r 1000</t>
-  </si>
-  <si>
     <t>transcribed_xlsr_ft_10_ARPA.csv</t>
-  </si>
-  <si>
-    <t>xls-r 10*</t>
   </si>
   <si>
     <t>transcribed_xlsr_ft_50_ARPA.csv</t>
   </si>
   <si>
-    <t>xls-r 50*</t>
-  </si>
-  <si>
     <t>transcribed_xlsr_ft_150_ARPA.csv</t>
-  </si>
-  <si>
-    <t>xls-r 150*</t>
   </si>
   <si>
     <t>transcribed_xlsr_ft_500_ARPA.csv</t>
   </si>
   <si>
-    <t>xls-r 500*</t>
-  </si>
-  <si>
     <t>transcribed_xlsr_ft_1000_ARPA.csv</t>
-  </si>
-  <si>
-    <t>xls-r 1000*</t>
   </si>
   <si>
     <t>transcribed_xlsr_ft_10_ARPA_train.csv</t>
@@ -137,6 +107,36 @@
   </si>
   <si>
     <t>transcribed_xlsr_ft_1000_ARPA_train.csv</t>
+  </si>
+  <si>
+    <t>xls-r-10</t>
+  </si>
+  <si>
+    <t>xls-r-50</t>
+  </si>
+  <si>
+    <t>xls-r-150</t>
+  </si>
+  <si>
+    <t>xls-r-500</t>
+  </si>
+  <si>
+    <t>xls-r-1000</t>
+  </si>
+  <si>
+    <t>xls-r-10*</t>
+  </si>
+  <si>
+    <t>xls-r-50*</t>
+  </si>
+  <si>
+    <t>xls-r-150*</t>
+  </si>
+  <si>
+    <t>xls-r-500*</t>
+  </si>
+  <si>
+    <t>xls-r-1000*</t>
   </si>
 </sst>
 </file>
@@ -1511,19 +1511,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>xls-r 10</c:v>
+                  <c:v>xls-r-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xls-r 50</c:v>
+                  <c:v>xls-r-50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>xls-r 150</c:v>
+                  <c:v>xls-r-150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>xls-r 500</c:v>
+                  <c:v>xls-r-500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>xls-r 1000</c:v>
+                  <c:v>xls-r-1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1647,19 +1647,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>xls-r 10</c:v>
+                  <c:v>xls-r-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xls-r 50</c:v>
+                  <c:v>xls-r-50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>xls-r 150</c:v>
+                  <c:v>xls-r-150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>xls-r 500</c:v>
+                  <c:v>xls-r-500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>xls-r 1000</c:v>
+                  <c:v>xls-r-1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2226,19 +2226,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>xls-r 10*</c:v>
+                  <c:v>xls-r-10*</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xls-r 50*</c:v>
+                  <c:v>xls-r-50*</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>xls-r 150*</c:v>
+                  <c:v>xls-r-150*</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>xls-r 500*</c:v>
+                  <c:v>xls-r-500*</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>xls-r 1000*</c:v>
+                  <c:v>xls-r-1000*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2362,19 +2362,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>xls-r 10*</c:v>
+                  <c:v>xls-r-10*</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xls-r 50*</c:v>
+                  <c:v>xls-r-50*</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>xls-r 150*</c:v>
+                  <c:v>xls-r-150*</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>xls-r 500*</c:v>
+                  <c:v>xls-r-500*</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>xls-r 1000*</c:v>
+                  <c:v>xls-r-1000*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2941,10 +2941,10 @@
                   <c:v>xls-r</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xls-r 1000</c:v>
+                  <c:v>xls-r-1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>xls-r 1000*</c:v>
+                  <c:v>xls-r-1000*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3065,10 +3065,10 @@
                   <c:v>xls-r</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xls-r 1000</c:v>
+                  <c:v>xls-r-1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>xls-r 1000*</c:v>
+                  <c:v>xls-r-1000*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5505,13 +5505,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0.31637999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>0.26707999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>0.21518000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>0.26167000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>0.17469999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>0.43075999999999998</v>
@@ -5631,9 +5631,9 @@
         <v>0.17469999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.26016</v>
@@ -5642,7 +5642,7 @@
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0.26016</v>
@@ -5651,9 +5651,9 @@
         <v>9.5299999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.16975000000000001</v>
@@ -5662,7 +5662,7 @@
         <v>5.799E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0.16975000000000001</v>
@@ -5671,9 +5671,9 @@
         <v>5.799E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>8.3210000000000006E-2</v>
@@ -5682,7 +5682,7 @@
         <v>2.6249999999999999E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>8.3210000000000006E-2</v>
@@ -5691,9 +5691,9 @@
         <v>2.6249999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>4.6440000000000002E-2</v>
@@ -5702,7 +5702,7 @@
         <v>1.541E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>4.6440000000000002E-2</v>
@@ -5711,9 +5711,9 @@
         <v>1.541E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0.28765000000000002</v>
@@ -5722,7 +5722,7 @@
         <v>0.13680999999999999</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0.29113</v>
@@ -5731,9 +5731,9 @@
         <v>0.13813</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0.14198</v>
@@ -5742,7 +5742,7 @@
         <v>6.6530000000000006E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0.14505000000000001</v>
@@ -5751,9 +5751,9 @@
         <v>6.7659999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0.11685</v>
@@ -5762,7 +5762,7 @@
         <v>4.786E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>0.11837</v>
@@ -5771,9 +5771,9 @@
         <v>4.8059999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>5.3659999999999999E-2</v>
@@ -5782,7 +5782,7 @@
         <v>2.0930000000000001E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>5.5930000000000001E-2</v>
@@ -5791,9 +5791,9 @@
         <v>2.1530000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2.9100000000000001E-2</v>
@@ -5802,7 +5802,7 @@
         <v>1.213E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>3.1320000000000001E-2</v>
@@ -5811,9 +5811,9 @@
         <v>1.2970000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0.29113</v>
@@ -5831,9 +5831,9 @@
         <v>0.26167000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>0.14505000000000001</v>
@@ -5842,7 +5842,7 @@
         <v>6.7659999999999998E-2</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>4.6440000000000002E-2</v>
@@ -5851,9 +5851,9 @@
         <v>1.541E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0.11837</v>
@@ -5862,7 +5862,7 @@
         <v>4.8059999999999999E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>3.1320000000000001E-2</v>
@@ -5871,9 +5871,9 @@
         <v>1.2970000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>5.5930000000000001E-2</v>
@@ -5882,9 +5882,9 @@
         <v>2.1530000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>3.1320000000000001E-2</v>

--- a/HG/metrics/transcribed_metrics_graphs.xlsx
+++ b/HG/metrics/transcribed_metrics_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC\HG\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0537435-19DC-4186-9A7B-AF5B2A22C77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A10A6-FB85-4298-96A2-9016139CC526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24645" yWindow="2370" windowWidth="21555" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transcribed_metrics_graphs" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -911,7 +911,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1447,7 +1447,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1583,7 +1583,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2107,7 +2107,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2157,7 +2157,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2298,7 +2298,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2811,7 +2811,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2865,7 +2865,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2998,7 +2998,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5505,7 +5505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/HG/metrics/transcribed_metrics_graphs.xlsx
+++ b/HG/metrics/transcribed_metrics_graphs.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC\HG\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A10A6-FB85-4298-96A2-9016139CC526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E09FD5-71CA-4586-A3AD-50CA71D6F241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24645" yWindow="2370" windowWidth="21555" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transcribed_metrics_graphs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>filename</t>
   </si>
@@ -138,11 +145,20 @@
   <si>
     <t>xls-r-1000*</t>
   </si>
+  <si>
+    <t>Training steps</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,8 +636,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -667,7 +684,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5206,6 +5227,22 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F043D08-E80D-40B2-A389-8939CFB3A8A2}" name="Table1" displayName="Table1" ref="S3:T8" totalsRowShown="0">
+  <autoFilter ref="S3:T8" xr:uid="{C0566269-1071-4E78-B1CF-812C53DB15AA}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3B4370E3-E187-45C0-90DB-CA816F676C44}" name="Training steps"/>
+    <tableColumn id="2" xr3:uid="{0532C88A-A057-4428-91FB-84FF6AD9C2F0}" name="Hours" dataDxfId="0">
+      <calculatedColumnFormula>(S4*3.8)/3600</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5503,15 +5540,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5531,7 +5572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5551,7 +5592,7 @@
         <v>0.31637999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5570,8 +5611,14 @@
       <c r="I3">
         <v>0.26707999999999998</v>
       </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5590,8 +5637,15 @@
       <c r="I4">
         <v>0.21518000000000001</v>
       </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
+        <f>(S4*3.8)/3600</f>
+        <v>1.0555555555555556E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5610,8 +5664,24 @@
       <c r="I5">
         <v>0.26167000000000001</v>
       </c>
+      <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5:T8" si="0">(S5*3.8)/3600</f>
+        <v>5.2777777777777778E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>150</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15833333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5630,8 +5700,15 @@
       <c r="I7">
         <v>0.17469999999999999</v>
       </c>
+      <c r="S7">
+        <v>500</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52777777777777779</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5650,8 +5727,15 @@
       <c r="I8">
         <v>9.5299999999999996E-2</v>
       </c>
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0555555555555556</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5671,7 +5755,7 @@
         <v>5.799E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5691,7 +5775,7 @@
         <v>2.6249999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5711,7 +5795,7 @@
         <v>1.541E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5731,7 +5815,7 @@
         <v>0.13813</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5751,7 +5835,7 @@
         <v>6.7659999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5771,7 +5855,7 @@
         <v>4.8059999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5896,5 +5980,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/HG/metrics/transcribed_metrics_graphs.xlsx
+++ b/HG/metrics/transcribed_metrics_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC\HG\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E09FD5-71CA-4586-A3AD-50CA71D6F241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA6359E-42DC-4689-9A25-4C83BC2D19A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24645" yWindow="2370" windowWidth="21555" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transcribed_metrics_graphs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>filename</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>WERR</t>
+  </si>
+  <si>
+    <t>CERR</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -592,7 +601,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -635,12 +644,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -680,6 +691,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -5243,6 +5255,36 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A66828-EE4E-4741-B9F8-6BDD339F013B}" name="Table2" displayName="Table2" ref="W3:X8" totalsRowShown="0" dataCellStyle="Percent">
+  <autoFilter ref="W3:X8" xr:uid="{60DC12B4-70D0-4018-A813-8E69C698D4E7}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2801EA21-08AF-4F51-BED8-2F52090F5A57}" name="WERR" dataCellStyle="Percent">
+      <calculatedColumnFormula>(H13-H7)/H7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{58F3E009-B3D0-495F-ACE6-F06157D11FC2}" name="CERR" dataCellStyle="Percent">
+      <calculatedColumnFormula>(I13-I7)/I7</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{30EF9EF4-9D71-4C3A-AD0B-72A3B8E9D282}" name="Table6" displayName="Table6" ref="V3:V8" totalsRowShown="0">
+  <autoFilter ref="V3:V8" xr:uid="{6EF2B473-0E1E-4C43-AE71-59600FF187DD}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0917787A-B659-487F-9BFD-D66796FC58B0}" name="Model"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5540,19 +5582,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="19" max="19" width="15.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5572,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5592,7 +5639,7 @@
         <v>0.31637999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5617,8 +5664,17 @@
       <c r="T3" t="s">
         <v>40</v>
       </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5644,8 +5700,19 @@
         <f>(S4*3.8)/3600</f>
         <v>1.0555555555555556E-2</v>
       </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" ref="W4:W8" si="0">(H13-H7)/H7</f>
+        <v>-0.32414801745751692</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" ref="X4:X8" si="1">(I13-I7)/I7</f>
+        <v>-0.20933028048082422</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5668,20 +5735,42 @@
         <v>50</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" ref="T5:T8" si="0">(S5*3.8)/3600</f>
+        <f t="shared" ref="T5:T8" si="2">(S5*3.8)/3600</f>
         <v>5.2777777777777778E-2</v>
       </c>
+      <c r="V5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.44245848708487079</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.29003147953830011</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S6">
         <v>150</v>
       </c>
       <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="V6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>0.15833333333333333</v>
+        <v>-0.30268041237113408</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.17123642007242632</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5704,11 +5793,22 @@
         <v>500</v>
       </c>
       <c r="T7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>0.52777777777777779</v>
+        <v>-0.32784521091215002</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.17980952380952375</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5731,11 +5831,22 @@
         <v>1000</v>
       </c>
       <c r="T8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.0555555555555556</v>
+        <v>-0.32558139534883723</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.15833874107722254</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5755,7 +5866,7 @@
         <v>5.799E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5775,7 +5886,7 @@
         <v>2.6249999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5795,7 +5906,7 @@
         <v>1.541E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5815,7 +5926,7 @@
         <v>0.13813</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5835,7 +5946,7 @@
         <v>6.7659999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5855,7 +5966,7 @@
         <v>4.8059999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5980,8 +6091,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/HG/metrics/transcribed_metrics_graphs.xlsx
+++ b/HG/metrics/transcribed_metrics_graphs.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC\HG\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\Thesis\ATC\HG\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA6359E-42DC-4689-9A25-4C83BC2D19A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B05C99-05F3-4583-85B0-90BEB73DA008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transcribed_metrics_graphs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -649,7 +652,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -696,7 +699,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -805,7 +819,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -934,9 +948,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,9 +1200,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1471,7 +1489,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1606,9 +1624,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1859,9 +1882,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2129,7 +2151,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2321,9 +2343,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2554,9 +2581,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2833,7 +2859,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3021,9 +3047,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3262,9 +3293,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5247,29 +5277,29 @@
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3B4370E3-E187-45C0-90DB-CA816F676C44}" name="Training steps"/>
-    <tableColumn id="2" xr3:uid="{0532C88A-A057-4428-91FB-84FF6AD9C2F0}" name="Hours" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{0532C88A-A057-4428-91FB-84FF6AD9C2F0}" name="Hours" dataDxfId="3">
       <calculatedColumnFormula>(S4*3.8)/3600</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A66828-EE4E-4741-B9F8-6BDD339F013B}" name="Table2" displayName="Table2" ref="W3:X8" totalsRowShown="0" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A66828-EE4E-4741-B9F8-6BDD339F013B}" name="Table2" displayName="Table2" ref="W3:X8" totalsRowShown="0" dataDxfId="2" dataCellStyle="Percent">
   <autoFilter ref="W3:X8" xr:uid="{60DC12B4-70D0-4018-A813-8E69C698D4E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2801EA21-08AF-4F51-BED8-2F52090F5A57}" name="WERR" dataCellStyle="Percent">
-      <calculatedColumnFormula>(H13-H7)/H7</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{2801EA21-08AF-4F51-BED8-2F52090F5A57}" name="WERR" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>(H13-H7)/H7*-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{58F3E009-B3D0-495F-ACE6-F06157D11FC2}" name="CERR" dataCellStyle="Percent">
-      <calculatedColumnFormula>(I13-I7)/I7</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{58F3E009-B3D0-495F-ACE6-F06157D11FC2}" name="CERR" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>(I13-I7)/I7*-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5281,7 +5311,7 @@
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0917787A-B659-487F-9BFD-D66796FC58B0}" name="Model"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5584,22 +5614,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.69140625" customWidth="1"/>
+    <col min="19" max="19" width="15.3828125" customWidth="1"/>
+    <col min="20" max="20" width="11.84375" customWidth="1"/>
+    <col min="21" max="21" width="12.3828125" customWidth="1"/>
+    <col min="22" max="22" width="12.3046875" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5619,7 +5649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5639,7 +5669,7 @@
         <v>0.31637999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5674,7 +5704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5704,15 +5734,15 @@
         <v>34</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" ref="W4:W8" si="0">(H13-H7)/H7</f>
-        <v>-0.32414801745751692</v>
+        <f t="shared" ref="W4:W8" si="0">(H13-H7)/H7*-1</f>
+        <v>0.32414801745751692</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" ref="X4:X8" si="1">(I13-I7)/I7</f>
-        <v>-0.20933028048082422</v>
+        <f t="shared" ref="X4:X8" si="1">(I13-I7)/I7*-1</f>
+        <v>0.20933028048082422</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5743,14 +5773,14 @@
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>-0.44245848708487079</v>
+        <v>0.44245848708487079</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="1"/>
-        <v>-0.29003147953830011</v>
+        <v>0.29003147953830011</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="S6">
         <v>150</v>
       </c>
@@ -5763,14 +5793,14 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.30268041237113408</v>
+        <v>0.30268041237113408</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.17123642007242632</v>
+        <v>0.17123642007242632</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5801,14 +5831,14 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>-0.32784521091215002</v>
+        <v>0.32784521091215002</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="1"/>
-        <v>-0.17980952380952375</v>
+        <v>0.17980952380952375</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5839,14 +5869,14 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.32558139534883723</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.15833874107722254</v>
+        <v>0.15833874107722254</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5866,7 +5896,7 @@
         <v>5.799E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5886,7 +5916,7 @@
         <v>2.6249999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5906,7 +5936,7 @@
         <v>1.541E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5926,7 +5956,7 @@
         <v>0.13813</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5946,7 +5976,7 @@
         <v>6.7659999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5966,7 +5996,7 @@
         <v>4.8059999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5986,7 +6016,7 @@
         <v>2.1530000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -6006,7 +6036,7 @@
         <v>1.2970000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -6026,7 +6056,7 @@
         <v>0.26167000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -6046,7 +6076,7 @@
         <v>1.541E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -6066,7 +6096,7 @@
         <v>1.2970000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -6077,7 +6107,7 @@
         <v>2.1530000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>28</v>
       </c>

--- a/HG/metrics/transcribed_metrics_graphs.xlsx
+++ b/HG/metrics/transcribed_metrics_graphs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\Thesis\ATC\HG\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B05C99-05F3-4583-85B0-90BEB73DA008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCD9B1A-A02F-43FF-AC06-30F979AFEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3485,6 +3485,2764 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evaluation Pretrained Models</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>robust</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hubert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xls-r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transcribed_metrics_graphs!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.71082999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59216999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51312999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66610000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B805-45EC-8DF8-65F262B8361C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="C00000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>robust</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hubert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xls-r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transcribed_metrics_graphs!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31637999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26167000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B805-45EC-8DF8-65F262B8361C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="519174144"/>
+        <c:axId val="519175456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519174144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Models</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519175456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519175456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519174144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evaluation Finetuned</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Models</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$G$7:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xls-r-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xls-r-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xls-r-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xls-r-500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>xls-r-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transcribed_metrics_graphs!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.43075999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3210000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6440000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6187-43BD-91DB-14516847A9C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="C00000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$G$7:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xls-r-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xls-r-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xls-r-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xls-r-500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>xls-r-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transcribed_metrics_graphs!$I$7:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.541E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6187-43BD-91DB-14516847A9C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="519174144"/>
+        <c:axId val="519175456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519174144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Models</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519175456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519175456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519174144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evaluation FineTuned Models in addition</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to Language Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="182880" anchor="t" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A3A4-4058-8B4B-B41799DC13F4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="1005840" anchor="t" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xls-r-10*</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xls-r-50*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xls-r-150*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xls-r-500*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>xls-r-1000*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transcribed_metrics_graphs!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.29113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14505000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5930000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1320000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3A4-4058-8B4B-B41799DC13F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="C00000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xls-r-10*</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xls-r-50*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xls-r-150*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>xls-r-500*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>xls-r-1000*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transcribed_metrics_graphs!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7659999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8059999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2970000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3A4-4058-8B4B-B41799DC13F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="519174144"/>
+        <c:axId val="519175456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519174144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Models</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519175456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519175456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519174144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Improvement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of XLS-R Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="182880" anchor="t" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AA2B-4ABE-8BDA-48302A603411}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="1005840" anchor="t" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$G$19:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>xls-r</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xls-r-1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xls-r-1000*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transcribed_metrics_graphs!$H$19:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.66610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6440000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1320000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA2B-4ABE-8BDA-48302A603411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="C00000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>transcribed_metrics_graphs!$G$19:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>xls-r</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xls-r-1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xls-r-1000*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transcribed_metrics_graphs!$I$19:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26167000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.541E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2970000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA2B-4ABE-8BDA-48302A603411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="519174144"/>
+        <c:axId val="519175456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519174144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Models</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519175456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519175456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519174144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3605,6 +6363,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4612,6 +7490,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5261,6 +9648,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>8164</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7B52CA-0955-4C0A-AFC1-F5F5BBFD20E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>527957</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9EF523-EC05-4A82-AC63-F6D78EE32BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>138794</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A83820-E549-46B4-912B-6EB4818B2F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E5A497-7A0E-4E43-9CDB-EBF6CBF69434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5614,8 +10153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="S44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD82" sqref="AD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
